--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_012.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="150">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -287,6 +293,9 @@
     <t>dataMorte</t>
   </si>
   <si>
+    <t>{evento.datiEventoRiconoscimento.preMorto,=,false}</t>
+  </si>
+  <si>
     <t>Ora</t>
   </si>
   <si>
@@ -414,6 +423,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -508,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G175"/>
+  <dimension ref="A1:H175"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -520,6 +532,7 @@
     <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="48.83984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,205 +554,238 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -761,3265 +807,3757 @@
       <c r="F12" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="C62" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="E108" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_012.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="152">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -462,6 +462,12 @@
   </si>
   <si>
     <t>presenzaDiscendenti</t>
+  </si>
+  <si>
+    <t>Scelta cambio cognome</t>
+  </si>
+  <si>
+    <t>tipoSceltaCognome</t>
   </si>
 </sst>
 </file>
@@ -520,7 +526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H175"/>
+  <dimension ref="A1:H176"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4560,6 +4566,29 @@
         <v>26</v>
       </c>
     </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_012.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="153">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,52 +32,55 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di nascita del figlio che viene riconosciuto</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di nascita del dichiarante</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di nascita dell'altro genitore</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di nascita del figlio che viene riconosciuto</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di nascita del dichiarante</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di nascita dell'altro genitore</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -814,3779 +817,3779 @@
         <v>5</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_012.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="154">
   <si>
     <t>Sezione</t>
   </si>
@@ -56,6 +56,9 @@
     <t>Copia integrale dell'atto di nascita dell'altro genitore</t>
   </si>
   <si>
+    <t>Autorizzazione del tribunale</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -296,7 +299,7 @@
     <t>dataMorte</t>
   </si>
   <si>
-    <t>{evento.datiEventoRiconoscimento.preMorto,=,false}</t>
+    <t>evento.datiEventoRiconoscimento.preMorto,=,false</t>
   </si>
   <si>
     <t>Ora</t>
@@ -428,7 +431,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -529,7 +532,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H176"/>
+  <dimension ref="A1:H177"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -541,7 +544,7 @@
     <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="48.83984375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="47.45703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -638,13 +641,13 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -661,13 +664,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -684,7 +687,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>17</v>
@@ -707,7 +710,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>18</v>
@@ -730,7 +733,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>19</v>
@@ -753,7 +756,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>20</v>
@@ -776,7 +779,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
@@ -798,3044 +801,3044 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="E63" s="2" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="E85" s="2" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F92" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F94" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F100" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F102" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F103" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E107" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="E115" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="E137" s="2" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>126</v>
@@ -3844,44 +3847,44 @@
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>129</v>
@@ -3890,706 +3893,729 @@
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F149" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>138</v>
+        <v>28</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F156" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F158" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F159" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B163" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E163" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B164" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E164" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F164" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F165" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F166" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E167" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F167" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F168" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C172" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="F172" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="F173" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E174" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E176" s="2" t="s">
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F176" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>27</v>
+      <c r="C177" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_012.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="152">
   <si>
     <t>Sezione</t>
   </si>
@@ -468,12 +468,6 @@
   </si>
   <si>
     <t>presenzaDiscendenti</t>
-  </si>
-  <si>
-    <t>Scelta cambio cognome</t>
-  </si>
-  <si>
-    <t>tipoSceltaCognome</t>
   </si>
 </sst>
 </file>
@@ -532,7 +526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H177"/>
+  <dimension ref="A1:H176"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4595,29 +4589,6 @@
         <v>28</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_012.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="158">
   <si>
     <t>Sezione</t>
   </si>
@@ -314,22 +314,40 @@
     <t>minutoMorte</t>
   </si>
   <si>
-    <t>stato</t>
+    <t>Stato di morte</t>
   </si>
   <si>
     <t>idStatoMorte</t>
   </si>
   <si>
-    <t>provincia</t>
+    <t>Stato di morte - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoMorte</t>
+  </si>
+  <si>
+    <t>Provincia di morte</t>
+  </si>
+  <si>
+    <t>idProvinciaMorte</t>
+  </si>
+  <si>
+    <t>Provincia di morte - Descrizione</t>
   </si>
   <si>
     <t>siglaProvinciaMorte</t>
   </si>
   <si>
-    <t>comune</t>
+    <t>Comune di morte</t>
   </si>
   <si>
     <t>idComuneMorte</t>
+  </si>
+  <si>
+    <t>Comune di morte - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneMorte</t>
   </si>
   <si>
     <t>indirizzo</t>
@@ -526,7 +544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H176"/>
+  <dimension ref="A1:H179"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3174,10 +3192,10 @@
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3188,88 +3206,88 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E116" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3280,19 +3298,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3303,19 +3321,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3326,19 +3344,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3349,19 +3367,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3372,19 +3390,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3395,19 +3413,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3418,19 +3436,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3441,19 +3459,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3464,19 +3482,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3487,19 +3505,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3510,19 +3528,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3533,19 +3551,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3556,19 +3574,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3579,19 +3597,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3602,19 +3620,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3625,19 +3643,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3648,19 +3666,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3671,19 +3689,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3694,19 +3712,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3717,19 +3735,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3740,19 +3758,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3763,16 +3781,16 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>121</v>
@@ -3786,7 +3804,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>122</v>
@@ -3795,7 +3813,7 @@
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>123</v>
@@ -3809,7 +3827,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>124</v>
@@ -3818,7 +3836,7 @@
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>125</v>
@@ -3832,7 +3850,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>126</v>
@@ -3841,10 +3859,10 @@
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3855,19 +3873,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3878,19 +3896,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3901,19 +3919,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3924,19 +3942,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -3947,19 +3965,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>135</v>
+        <v>30</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -3970,591 +3988,591 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E150" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F150" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>28</v>
+        <v>145</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E173" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>28</v>
+        <v>145</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>149</v>
@@ -4568,7 +4586,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>150</v>
@@ -4577,15 +4595,84 @@
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>151</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G176" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_012.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="160">
   <si>
     <t>Sezione</t>
   </si>
@@ -197,6 +197,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -422,22 +428,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Interprete</t>
@@ -544,7 +550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H179"/>
+  <dimension ref="A1:H185"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1504,19 +1510,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1527,19 +1533,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1550,19 +1556,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1573,19 +1579,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1596,19 +1602,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1619,19 +1625,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1642,19 +1648,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1665,19 +1671,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1688,19 +1694,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1711,19 +1717,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1734,19 +1740,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1757,19 +1763,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1780,19 +1786,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1803,19 +1809,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1826,19 +1832,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1849,19 +1855,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1872,19 +1878,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1895,19 +1901,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1918,19 +1924,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1941,19 +1947,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1964,19 +1970,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1987,19 +1993,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2013,16 +2019,16 @@
         <v>87</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>88</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2036,7 +2042,7 @@
         <v>87</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
@@ -2045,7 +2051,7 @@
         <v>88</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2056,19 +2062,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2079,19 +2085,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2102,19 +2108,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2125,19 +2131,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2148,19 +2154,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2171,19 +2177,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2194,19 +2200,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2217,19 +2223,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2240,19 +2246,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2263,19 +2269,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2286,19 +2292,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2309,19 +2315,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2332,19 +2338,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2355,19 +2361,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2378,19 +2384,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2401,19 +2407,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2424,19 +2430,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2447,19 +2453,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2470,19 +2476,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2493,19 +2499,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2519,19 +2525,19 @@
         <v>89</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>28</v>
@@ -2542,7 +2548,7 @@
         <v>89</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
@@ -2551,7 +2557,7 @@
         <v>90</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2565,7 +2571,7 @@
         <v>89</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
@@ -2574,7 +2580,7 @@
         <v>90</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2585,22 +2591,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>28</v>
@@ -2608,19 +2614,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2631,19 +2637,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2654,19 +2660,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2677,22 +2683,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>28</v>
@@ -2700,19 +2706,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2723,22 +2729,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>28</v>
@@ -2746,22 +2752,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>28</v>
@@ -2769,19 +2775,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2792,22 +2798,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>28</v>
@@ -2815,22 +2821,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>28</v>
@@ -2838,19 +2844,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2861,22 +2867,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>28</v>
@@ -2884,19 +2890,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2907,22 +2913,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>28</v>
@@ -2930,22 +2936,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>28</v>
@@ -2953,22 +2959,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>28</v>
@@ -2976,19 +2982,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2999,22 +3005,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>28</v>
@@ -3025,22 +3031,22 @@
         <v>91</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E108" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
     </row>
     <row r="109">
@@ -3048,22 +3054,22 @@
         <v>91</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110">
@@ -3071,22 +3077,22 @@
         <v>91</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
     </row>
     <row r="111">
@@ -3094,292 +3100,292 @@
         <v>91</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C122" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3390,19 +3396,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3413,19 +3419,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3436,19 +3442,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3459,19 +3465,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3482,19 +3488,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3505,19 +3511,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3528,19 +3534,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3551,19 +3557,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3574,19 +3580,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3597,19 +3603,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3620,19 +3626,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3643,19 +3649,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3666,19 +3672,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3689,19 +3695,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3712,19 +3718,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3735,19 +3741,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3758,19 +3764,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3784,16 +3790,16 @@
         <v>118</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="E141" s="2" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3807,16 +3813,16 @@
         <v>118</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3830,16 +3836,16 @@
         <v>118</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3853,16 +3859,16 @@
         <v>118</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3876,16 +3882,16 @@
         <v>118</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3896,19 +3902,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3919,19 +3925,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3942,19 +3948,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -3965,19 +3971,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -3988,19 +3994,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4011,19 +4017,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4034,19 +4040,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4057,622 +4063,760 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E157" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F176" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="G176" s="2" t="s">
-        <v>28</v>
+        <v>147</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F177" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G177" s="2" t="s">
-        <v>28</v>
+        <v>147</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>155</v>
+        <v>82</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>28</v>
+        <v>147</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B179" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E179" s="2" t="s">
+      <c r="C184" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E184" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F179" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G179" s="2" t="s">
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_012.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="161">
   <si>
     <t>Sezione</t>
   </si>
@@ -455,7 +455,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -562,7 +565,7 @@
     <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="47.45703125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4687,7 +4690,7 @@
         <v>144</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>12</v>
@@ -4707,19 +4710,19 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
@@ -4730,19 +4733,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>18</v>
@@ -4753,10 +4756,10 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>12</v>
@@ -4765,7 +4768,7 @@
         <v>26</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
@@ -4776,10 +4779,10 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>12</v>
@@ -4788,7 +4791,7 @@
         <v>117</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
@@ -4799,10 +4802,10 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
@@ -4811,7 +4814,7 @@
         <v>117</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_012.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="160">
   <si>
     <t>Sezione</t>
   </si>
@@ -456,9 +456,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -4690,7 +4687,7 @@
         <v>144</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>12</v>
@@ -4710,19 +4707,19 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="C181" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D181" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D181" s="2" t="s">
+      <c r="E181" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
@@ -4733,19 +4730,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E182" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>18</v>
@@ -4756,10 +4753,10 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>12</v>
@@ -4768,7 +4765,7 @@
         <v>26</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
@@ -4779,10 +4776,10 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>12</v>
@@ -4791,7 +4788,7 @@
         <v>117</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
@@ -4802,10 +4799,10 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
@@ -4814,7 +4811,7 @@
         <v>117</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_012.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="161">
   <si>
     <t>Sezione</t>
   </si>
@@ -456,6 +456,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -4687,7 +4690,7 @@
         <v>144</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>12</v>
@@ -4707,19 +4710,19 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
@@ -4730,19 +4733,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>18</v>
@@ -4753,10 +4756,10 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>12</v>
@@ -4765,7 +4768,7 @@
         <v>26</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
@@ -4776,10 +4779,10 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>12</v>
@@ -4788,7 +4791,7 @@
         <v>117</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
@@ -4799,10 +4802,10 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
@@ -4811,7 +4814,7 @@
         <v>117</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_012.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="171">
   <si>
     <t>Sezione</t>
   </si>
@@ -279,6 +279,36 @@
   </si>
   <si>
     <t>evento.madre</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Padre</t>
@@ -553,7 +583,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H185"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -563,7 +593,7 @@
     <col min="2" max="2" width="60.0859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2065,19 +2095,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2088,19 +2118,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2111,19 +2141,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2134,19 +2164,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2157,19 +2187,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2180,19 +2210,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2203,19 +2233,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2226,19 +2256,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2249,19 +2279,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2272,19 +2302,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2295,19 +2325,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2318,19 +2348,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2341,19 +2371,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2364,19 +2394,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2387,19 +2417,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2410,19 +2440,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2433,19 +2463,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2456,19 +2486,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2479,19 +2509,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2502,19 +2532,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2525,19 +2555,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2548,19 +2578,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2571,19 +2601,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2594,22 +2624,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>28</v>
@@ -2617,19 +2647,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2640,19 +2670,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2663,19 +2693,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2686,19 +2716,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2709,19 +2739,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2732,19 +2762,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2755,22 +2785,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>28</v>
@@ -2778,19 +2808,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2801,22 +2831,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>28</v>
@@ -2824,19 +2854,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>16</v>
@@ -2847,19 +2877,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2870,19 +2900,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2893,19 +2923,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2916,19 +2946,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2939,19 +2969,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2962,22 +2992,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>28</v>
@@ -2985,22 +3015,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>28</v>
@@ -3008,22 +3038,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>28</v>
@@ -3031,19 +3061,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>16</v>
@@ -3054,22 +3084,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>28</v>
@@ -3077,19 +3107,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3100,19 +3130,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3123,275 +3153,275 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E115" s="2" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>28</v>
@@ -3399,19 +3429,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3422,22 +3452,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>28</v>
@@ -3445,272 +3475,272 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E132" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3721,19 +3751,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3744,19 +3774,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3767,19 +3797,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3790,19 +3820,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3813,19 +3843,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3836,19 +3866,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3859,19 +3889,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3882,19 +3912,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3905,19 +3935,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3928,19 +3958,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3951,19 +3981,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -3974,19 +4004,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -3997,19 +4027,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4020,19 +4050,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4043,19 +4073,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4066,19 +4096,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4089,19 +4119,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4112,19 +4142,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4135,19 +4165,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4158,19 +4188,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4181,645 +4211,967 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>47</v>
+        <v>134</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>51</v>
+        <v>138</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>55</v>
+        <v>142</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B166" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>61</v>
+        <v>147</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>148</v>
+        <v>57</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>153</v>
+        <v>61</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E183" s="2" t="s">
-        <v>156</v>
+        <v>64</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E185" s="2" t="s">
+      <c r="B195" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F185" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G185" s="2" t="s">
+      <c r="C195" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_012.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="149">
   <si>
     <t>Sezione</t>
   </si>
@@ -149,6 +149,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -203,13 +209,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -323,199 +329,127 @@
     <t>evento.intestatari[0]</t>
   </si>
   <si>
-    <t>Dati Riconoscimento - Dati di morte</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>evento.datiDiMorte</t>
-  </si>
-  <si>
-    <t>dataMorte</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.preMorto,=,false</t>
-  </si>
-  <si>
-    <t>Ora</t>
-  </si>
-  <si>
-    <t>oraMorte</t>
-  </si>
-  <si>
-    <t>minuti</t>
-  </si>
-  <si>
-    <t>minutoMorte</t>
-  </si>
-  <si>
-    <t>Stato di morte</t>
-  </si>
-  <si>
-    <t>idStatoMorte</t>
-  </si>
-  <si>
-    <t>Stato di morte - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoMorte</t>
-  </si>
-  <si>
-    <t>Provincia di morte</t>
-  </si>
-  <si>
-    <t>idProvinciaMorte</t>
-  </si>
-  <si>
-    <t>Provincia di morte - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaMorte</t>
-  </si>
-  <si>
-    <t>Comune di morte</t>
-  </si>
-  <si>
-    <t>idComuneMorte</t>
-  </si>
-  <si>
-    <t>Comune di morte - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneMorte</t>
-  </si>
-  <si>
-    <t>indirizzo</t>
-  </si>
-  <si>
-    <t>indirizzoMorte</t>
-  </si>
-  <si>
-    <t>Dati prodotti</t>
+    <t>Dati Riconoscimento - Generalità discendenti</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento.discendenti[0]</t>
+  </si>
+  <si>
+    <t>Atto Nascita Figlio</t>
+  </si>
+  <si>
+    <t>Id atto</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento.attoNascita</t>
+  </si>
+  <si>
+    <t>idAnsc</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Interprete</t>
+  </si>
+  <si>
+    <t>evento.interprete</t>
+  </si>
+  <si>
+    <t>195,196</t>
+  </si>
+  <si>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
+    <t>Dettagli evento</t>
+  </si>
+  <si>
+    <t>Condizioni dichiarante</t>
+  </si>
+  <si>
+    <t>evento.datiDichiarante</t>
+  </si>
+  <si>
+    <t>comprensione</t>
+  </si>
+  <si>
+    <t>Motivo impedimento scrittura</t>
+  </si>
+  <si>
+    <t>motivoImpedimentoScrittura</t>
+  </si>
+  <si>
+    <t>Presenza interprete</t>
+  </si>
+  <si>
+    <t>ausilioInterprete</t>
+  </si>
+  <si>
+    <t>Figlio premorto</t>
   </si>
   <si>
     <t>evento.datiEventoRiconoscimento</t>
-  </si>
-  <si>
-    <t>Dati Riconoscimento - Generalità discendenti</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.discendenti[0]</t>
-  </si>
-  <si>
-    <t>Atto Nascita Figlio</t>
-  </si>
-  <si>
-    <t>Id atto</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.attoNascita</t>
-  </si>
-  <si>
-    <t>idAnsc</t>
-  </si>
-  <si>
-    <t>Provincia registrazione</t>
-  </si>
-  <si>
-    <t>idProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Provincia registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione</t>
-  </si>
-  <si>
-    <t>idComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Tipo evento</t>
-  </si>
-  <si>
-    <t>idtipocontenuto</t>
-  </si>
-  <si>
-    <t>Numero Comunale</t>
-  </si>
-  <si>
-    <t>Anno atto</t>
-  </si>
-  <si>
-    <t>annoAtto</t>
-  </si>
-  <si>
-    <t>Data atto</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
-  </si>
-  <si>
-    <t>Tipo registro</t>
-  </si>
-  <si>
-    <t>tipologia</t>
-  </si>
-  <si>
-    <t>Interprete</t>
-  </si>
-  <si>
-    <t>evento.interprete</t>
-  </si>
-  <si>
-    <t>195,196</t>
-  </si>
-  <si>
-    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
-  </si>
-  <si>
-    <t>Dettagli evento</t>
-  </si>
-  <si>
-    <t>Condizioni dichiarante</t>
-  </si>
-  <si>
-    <t>evento.datiDichiarante</t>
-  </si>
-  <si>
-    <t>comprensione</t>
-  </si>
-  <si>
-    <t>Motivo impedimento scrittura</t>
-  </si>
-  <si>
-    <t>motivoImpedimentoScrittura</t>
-  </si>
-  <si>
-    <t>Presenza interprete</t>
-  </si>
-  <si>
-    <t>ausilioInterprete</t>
-  </si>
-  <si>
-    <t>Figlio premorto</t>
   </si>
   <si>
     <t>preMorto</t>
@@ -583,7 +517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H194"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1566,19 +1500,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1589,19 +1523,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1612,19 +1546,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1635,19 +1569,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1658,19 +1592,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1681,19 +1615,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1704,19 +1638,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1727,19 +1661,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1750,19 +1684,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1773,19 +1707,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1796,19 +1730,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1819,19 +1753,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1842,19 +1776,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1865,19 +1799,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1888,19 +1822,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1911,19 +1845,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1934,19 +1868,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1957,19 +1891,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1980,19 +1914,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2003,19 +1937,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2026,19 +1960,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2049,19 +1983,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2072,19 +2006,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2095,19 +2029,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2118,19 +2052,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2141,19 +2075,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2164,19 +2098,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2187,19 +2121,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2210,19 +2144,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2233,19 +2167,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2256,19 +2190,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2279,19 +2213,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2302,19 +2236,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2325,19 +2259,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2348,19 +2282,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2371,19 +2305,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2394,19 +2328,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2417,19 +2351,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2440,19 +2374,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2463,19 +2397,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2486,19 +2420,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2509,19 +2443,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2532,19 +2466,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2555,19 +2489,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2578,19 +2512,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2601,19 +2535,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2624,19 +2558,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2647,19 +2581,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2670,19 +2604,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2693,19 +2627,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2716,19 +2650,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2739,19 +2673,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2762,19 +2696,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2785,19 +2719,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2808,19 +2742,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2831,19 +2765,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2857,7 +2791,7 @@
         <v>101</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
@@ -2866,10 +2800,10 @@
         <v>102</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>28</v>
@@ -2880,16 +2814,16 @@
         <v>101</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>102</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2903,16 +2837,16 @@
         <v>101</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>102</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2923,22 +2857,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>28</v>
@@ -2946,19 +2880,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2969,19 +2903,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2992,19 +2926,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3015,22 +2949,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>28</v>
@@ -3038,19 +2972,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3061,22 +2995,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>28</v>
@@ -3084,22 +3018,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>28</v>
@@ -3107,22 +3041,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>28</v>
@@ -3130,19 +3064,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3153,22 +3087,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>28</v>
@@ -3176,22 +3110,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>28</v>
@@ -3199,19 +3133,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3222,22 +3156,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>28</v>
@@ -3245,19 +3179,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3268,22 +3202,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>28</v>
@@ -3291,22 +3225,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>28</v>
@@ -3314,22 +3248,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>28</v>
@@ -3337,19 +3271,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3360,22 +3294,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>28</v>
@@ -3383,22 +3317,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>28</v>
@@ -3406,22 +3340,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>28</v>
@@ -3429,19 +3363,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3452,22 +3386,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>28</v>
@@ -3478,22 +3412,22 @@
         <v>103</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E126" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
     </row>
     <row r="127">
@@ -3501,22 +3435,22 @@
         <v>103</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
     </row>
     <row r="128">
@@ -3524,22 +3458,22 @@
         <v>103</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
     </row>
     <row r="129">
@@ -3547,200 +3481,200 @@
         <v>103</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3751,19 +3685,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3774,19 +3708,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3797,19 +3731,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3820,19 +3754,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3843,19 +3777,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3866,19 +3800,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3889,19 +3823,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3912,19 +3846,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3935,19 +3869,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3958,19 +3892,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3981,19 +3915,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4004,19 +3938,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4027,19 +3961,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4050,19 +3984,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4073,19 +4007,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4096,19 +4030,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4119,19 +4053,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4142,19 +4076,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4165,19 +4099,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4188,19 +4122,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4211,19 +4145,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4234,19 +4168,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4257,19 +4191,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4280,19 +4214,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4303,19 +4237,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4326,19 +4260,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4349,19 +4283,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4372,19 +4306,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4395,33 +4329,33 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>132</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>12</v>
@@ -4430,90 +4364,90 @@
         <v>132</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>132</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>132</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>149</v>
+        <v>48</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>132</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>151</v>
+        <v>50</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>152</v>
+        <v>51</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>12</v>
@@ -4522,656 +4456,541 @@
         <v>132</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>153</v>
+        <v>52</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>157</v>
+        <v>28</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>157</v>
+        <v>28</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>155</v>
+        <v>26</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>157</v>
+        <v>28</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>157</v>
+        <v>28</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G195" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G196" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G199" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_012.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="151">
   <si>
     <t>Sezione</t>
   </si>
@@ -219,6 +219,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -517,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H194"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1523,19 +1529,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1546,19 +1552,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1569,19 +1575,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1592,19 +1598,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1615,19 +1621,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1638,19 +1644,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1661,19 +1667,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1684,19 +1690,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1707,19 +1713,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1730,19 +1736,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1753,19 +1759,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1776,19 +1782,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1799,19 +1805,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1822,19 +1828,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1845,19 +1851,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1868,19 +1874,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1891,19 +1897,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1914,19 +1920,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1937,19 +1943,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1960,19 +1966,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1983,19 +1989,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2006,19 +2012,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2029,19 +2035,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2052,19 +2058,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2075,19 +2081,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2098,19 +2104,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2121,19 +2127,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2144,19 +2150,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2167,19 +2173,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2190,19 +2196,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2213,19 +2219,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2236,19 +2242,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2259,19 +2265,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2282,19 +2288,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2305,19 +2311,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2328,19 +2334,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2351,19 +2357,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2374,19 +2380,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2397,19 +2403,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2420,19 +2426,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2443,19 +2449,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2466,19 +2472,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2489,19 +2495,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2512,19 +2518,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2535,19 +2541,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2558,19 +2564,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2581,19 +2587,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2604,19 +2610,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2627,19 +2633,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2650,19 +2656,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2673,19 +2679,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2696,19 +2702,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2719,19 +2725,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2742,19 +2748,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2765,19 +2771,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2788,19 +2794,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2811,19 +2817,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2834,19 +2840,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2860,7 +2866,7 @@
         <v>103</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -2869,10 +2875,10 @@
         <v>104</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>28</v>
@@ -2883,16 +2889,16 @@
         <v>103</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2906,7 +2912,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -2915,7 +2921,7 @@
         <v>104</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2926,22 +2932,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>28</v>
@@ -2949,19 +2955,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2972,19 +2978,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2995,19 +3001,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3018,19 +3024,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3041,22 +3047,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>28</v>
@@ -3064,19 +3070,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3087,22 +3093,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>28</v>
@@ -3110,19 +3116,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>16</v>
@@ -3133,19 +3139,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3156,22 +3162,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>28</v>
@@ -3179,22 +3185,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>28</v>
@@ -3202,19 +3208,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3225,19 +3231,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3248,19 +3254,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>16</v>
@@ -3271,19 +3277,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3294,19 +3300,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>16</v>
@@ -3317,22 +3323,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>28</v>
@@ -3340,22 +3346,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>28</v>
@@ -3363,19 +3369,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3386,22 +3392,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>28</v>
@@ -3409,22 +3415,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>28</v>
@@ -3432,22 +3438,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>28</v>
@@ -3455,19 +3461,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3478,22 +3484,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>28</v>
@@ -3504,16 +3510,16 @@
         <v>105</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3527,19 +3533,19 @@
         <v>105</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>28</v>
@@ -3550,16 +3556,16 @@
         <v>105</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3573,19 +3579,19 @@
         <v>105</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>28</v>
@@ -3593,19 +3599,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3616,19 +3622,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3639,19 +3645,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3662,19 +3668,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3685,19 +3691,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3708,19 +3714,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3731,19 +3737,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3754,19 +3760,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3777,19 +3783,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3800,19 +3806,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3823,19 +3829,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3846,19 +3852,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3869,19 +3875,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3892,19 +3898,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3915,19 +3921,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -3938,19 +3944,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -3961,19 +3967,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -3984,19 +3990,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4007,19 +4013,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4030,19 +4036,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4056,16 +4062,16 @@
         <v>107</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E154" s="2" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4079,16 +4085,16 @@
         <v>107</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4102,16 +4108,16 @@
         <v>107</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4125,16 +4131,16 @@
         <v>107</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4148,16 +4154,16 @@
         <v>107</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4168,19 +4174,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4191,19 +4197,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4214,19 +4220,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4237,19 +4243,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4260,19 +4266,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4283,19 +4289,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4306,19 +4312,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4329,668 +4335,806 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>134</v>
+        <v>28</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>134</v>
+        <v>28</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>134</v>
+        <v>28</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>134</v>
+        <v>28</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C170" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E170" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>134</v>
+        <v>28</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B189" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F189" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C189" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G189" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G190" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G191" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G191" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G192" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G192" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G193" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B194" s="2" t="s">
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D199" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C194" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E194" s="2" t="s">
+      <c r="E199" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F194" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G194" s="2" t="s">
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_012.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="153">
   <si>
     <t>Sezione</t>
   </si>
@@ -219,6 +219,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -523,7 +529,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H206"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1552,19 +1558,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1575,19 +1581,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1598,19 +1604,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1621,19 +1627,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1644,19 +1650,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1667,19 +1673,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1690,19 +1696,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1713,19 +1719,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1736,19 +1742,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1759,19 +1765,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1782,19 +1788,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1805,19 +1811,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1828,19 +1834,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1851,19 +1857,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1874,19 +1880,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1897,19 +1903,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1920,19 +1926,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1943,19 +1949,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1966,19 +1972,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1989,19 +1995,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2012,19 +2018,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2035,19 +2041,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2058,19 +2064,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2081,19 +2087,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2104,19 +2110,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2127,19 +2133,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2150,19 +2156,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2173,19 +2179,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2196,19 +2202,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2219,19 +2225,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2242,19 +2248,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2265,19 +2271,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2288,19 +2294,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2311,19 +2317,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2334,19 +2340,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2357,19 +2363,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2380,19 +2386,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2403,19 +2409,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2426,19 +2432,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2449,19 +2455,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2472,19 +2478,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2495,19 +2501,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2518,19 +2524,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2541,19 +2547,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2564,19 +2570,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2587,19 +2593,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2610,19 +2616,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2633,19 +2639,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2656,19 +2662,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2679,19 +2685,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2702,19 +2708,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2725,19 +2731,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2748,19 +2754,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2771,19 +2777,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2794,19 +2800,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2817,19 +2823,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2840,19 +2846,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2863,19 +2869,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2886,19 +2892,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2909,19 +2915,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2935,7 +2941,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -2944,10 +2950,10 @@
         <v>106</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>28</v>
@@ -2958,16 +2964,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2981,7 +2987,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -2990,7 +2996,7 @@
         <v>106</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3001,22 +3007,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>28</v>
@@ -3024,19 +3030,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3047,19 +3053,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3070,19 +3076,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3093,19 +3099,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3116,22 +3122,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>28</v>
@@ -3139,19 +3145,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3162,22 +3168,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>28</v>
@@ -3185,19 +3191,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>16</v>
@@ -3208,19 +3214,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3231,22 +3237,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>28</v>
@@ -3254,19 +3260,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>16</v>
@@ -3277,19 +3283,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3300,22 +3306,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>28</v>
@@ -3323,22 +3329,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>28</v>
@@ -3346,19 +3352,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>16</v>
@@ -3369,19 +3375,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3392,19 +3398,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>16</v>
@@ -3415,22 +3421,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>28</v>
@@ -3438,22 +3444,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>28</v>
@@ -3461,19 +3467,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3484,22 +3490,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>28</v>
@@ -3507,22 +3513,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>28</v>
@@ -3530,22 +3536,22 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>28</v>
@@ -3553,19 +3559,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3576,22 +3582,22 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>28</v>
@@ -3602,16 +3608,16 @@
         <v>107</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3625,19 +3631,19 @@
         <v>107</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>28</v>
@@ -3648,16 +3654,16 @@
         <v>107</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3671,19 +3677,19 @@
         <v>107</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>28</v>
@@ -3691,19 +3697,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3714,19 +3720,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3737,19 +3743,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3760,19 +3766,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3783,19 +3789,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3806,19 +3812,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3829,19 +3835,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3852,19 +3858,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3875,19 +3881,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3898,19 +3904,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3921,19 +3927,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -3944,19 +3950,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -3967,19 +3973,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -3990,19 +3996,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4013,19 +4019,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4036,19 +4042,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4059,19 +4065,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4082,19 +4088,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4105,19 +4111,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4128,19 +4134,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4151,19 +4157,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4177,16 +4183,16 @@
         <v>109</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="E159" s="2" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4200,16 +4206,16 @@
         <v>109</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4223,16 +4229,16 @@
         <v>109</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4246,16 +4252,16 @@
         <v>109</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4269,16 +4275,16 @@
         <v>109</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4289,19 +4295,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4312,19 +4318,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4335,19 +4341,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4358,19 +4364,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4381,19 +4387,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4404,19 +4410,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4427,19 +4433,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>132</v>
+        <v>27</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4450,691 +4456,829 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B175" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C175" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E175" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F195" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G195" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G196" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G197" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G198" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G199" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B200" s="2" t="s">
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D205" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C200" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E200" s="2" t="s">
+      <c r="E205" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F200" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G200" s="2" t="s">
+      <c r="F205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_012.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="155">
   <si>
     <t>Sezione</t>
   </si>
@@ -411,6 +411,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -529,7 +535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H206"/>
+  <dimension ref="A1:H207"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4554,7 +4560,7 @@
         <v>133</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>113</v>
@@ -4571,605 +4577,605 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C176" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E176" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F176" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>138</v>
+        <v>28</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>141</v>
@@ -5178,36 +5184,36 @@
         <v>12</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>28</v>
+        <v>140</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B203" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D203" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>145</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
         <v>28</v>
@@ -5215,22 +5221,22 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>147</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G204" s="2" t="s">
         <v>28</v>
@@ -5238,7 +5244,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>148</v>
@@ -5247,10 +5253,10 @@
         <v>12</v>
       </c>
       <c r="D205" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E205" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
@@ -5261,16 +5267,16 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B206" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D206" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>152</v>
@@ -5279,6 +5285,29 @@
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_012.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="153">
   <si>
     <t>Sezione</t>
   </si>
@@ -339,12 +339,6 @@
   </si>
   <si>
     <t>evento.intestatari[0]</t>
-  </si>
-  <si>
-    <t>Dati Riconoscimento - Generalità discendenti</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.discendenti[0]</t>
   </si>
   <si>
     <t>Atto Nascita Figlio</t>
@@ -535,16 +529,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H207"/>
+  <dimension ref="A1:H181"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="17.21875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="60.0859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="42.60546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
@@ -3706,16 +3700,16 @@
         <v>109</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3729,16 +3723,16 @@
         <v>109</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3752,16 +3746,16 @@
         <v>109</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3775,16 +3769,16 @@
         <v>109</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3798,16 +3792,16 @@
         <v>109</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3821,16 +3815,16 @@
         <v>109</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3844,16 +3838,16 @@
         <v>109</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3867,16 +3861,16 @@
         <v>109</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3890,16 +3884,16 @@
         <v>109</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3913,16 +3907,16 @@
         <v>109</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3936,16 +3930,16 @@
         <v>109</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -3959,16 +3953,16 @@
         <v>109</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -3982,16 +3976,16 @@
         <v>109</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4002,1312 +3996,714 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>140</v>
+        <v>28</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>140</v>
+        <v>28</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>138</v>
+        <v>26</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>140</v>
+        <v>28</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>47</v>
+        <v>148</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>140</v>
+        <v>28</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G189" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G190" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G191" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G192" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G193" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G194" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G195" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G196" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G199" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G201" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G202" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G203" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G204" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G205" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G206" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G207" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_012.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_012.xlsx
@@ -1596,7 +1596,7 @@
         <v>42</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>28</v>
@@ -1780,7 +1780,7 @@
         <v>58</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>28</v>
@@ -1826,7 +1826,7 @@
         <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>28</v>
@@ -1849,7 +1849,7 @@
         <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>28</v>
@@ -1918,7 +1918,7 @@
         <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>28</v>
@@ -1941,7 +1941,7 @@
         <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>28</v>
@@ -1987,7 +1987,7 @@
         <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>28</v>
@@ -2033,7 +2033,7 @@
         <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>28</v>
@@ -2079,7 +2079,7 @@
         <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>28</v>
@@ -2102,7 +2102,7 @@
         <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>28</v>
@@ -2217,7 +2217,7 @@
         <v>98</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>28</v>
@@ -2263,7 +2263,7 @@
         <v>102</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>28</v>
@@ -2286,7 +2286,7 @@
         <v>104</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>28</v>
@@ -2309,7 +2309,7 @@
         <v>42</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>28</v>
@@ -2493,7 +2493,7 @@
         <v>58</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>28</v>
@@ -2539,7 +2539,7 @@
         <v>62</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>28</v>
@@ -2562,7 +2562,7 @@
         <v>64</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>28</v>
@@ -2631,7 +2631,7 @@
         <v>70</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>28</v>
@@ -2654,7 +2654,7 @@
         <v>72</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>28</v>
@@ -2700,7 +2700,7 @@
         <v>76</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>28</v>
@@ -2746,7 +2746,7 @@
         <v>80</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>28</v>
@@ -2792,7 +2792,7 @@
         <v>84</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>28</v>
@@ -2815,7 +2815,7 @@
         <v>86</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>28</v>
@@ -2930,7 +2930,7 @@
         <v>98</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>28</v>
@@ -2976,7 +2976,7 @@
         <v>102</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>28</v>
@@ -2999,7 +2999,7 @@
         <v>104</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>28</v>
@@ -3919,7 +3919,7 @@
         <v>128</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>28</v>
@@ -3942,7 +3942,7 @@
         <v>130</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>28</v>
@@ -3965,7 +3965,7 @@
         <v>132</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>28</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_012.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_012.xlsx
@@ -4278,7 +4278,7 @@
         <v>65</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>136</v>
@@ -4301,7 +4301,7 @@
         <v>67</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>136</v>
@@ -4310,7 +4310,7 @@
         <v>68</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G164" s="2" t="s">
         <v>138</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_012.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="157">
   <si>
     <t>Sezione</t>
   </si>
@@ -159,6 +159,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -529,7 +541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H181"/>
+  <dimension ref="A1:H191"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1581,22 +1593,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>28</v>
@@ -1604,19 +1616,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1627,22 +1639,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>28</v>
@@ -1650,19 +1662,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1673,19 +1685,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1696,19 +1708,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1719,19 +1731,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1742,22 +1754,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>28</v>
@@ -1765,22 +1777,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>28</v>
@@ -1788,19 +1800,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1811,22 +1823,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>28</v>
@@ -1834,22 +1846,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>28</v>
@@ -1857,22 +1869,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>28</v>
@@ -1880,19 +1892,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1903,19 +1915,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>16</v>
@@ -1926,19 +1938,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>16</v>
@@ -1949,19 +1961,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1972,22 +1984,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>28</v>
@@ -1995,22 +2007,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>28</v>
@@ -2018,19 +2030,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>16</v>
@@ -2041,19 +2053,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2064,19 +2076,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>16</v>
@@ -2087,22 +2099,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>28</v>
@@ -2110,22 +2122,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>28</v>
@@ -2133,19 +2145,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2156,22 +2168,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>28</v>
@@ -2179,22 +2191,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>28</v>
@@ -2202,22 +2214,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>28</v>
@@ -2225,19 +2237,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2248,22 +2260,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>28</v>
@@ -2271,22 +2283,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>28</v>
@@ -2294,19 +2306,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>16</v>
@@ -2317,19 +2329,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2340,22 +2352,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>28</v>
@@ -2363,22 +2375,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>28</v>
@@ -2386,22 +2398,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>28</v>
@@ -2409,19 +2421,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2432,19 +2444,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2455,19 +2467,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2478,22 +2490,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>28</v>
@@ -2501,22 +2513,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>28</v>
@@ -2524,22 +2536,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>28</v>
@@ -2547,22 +2559,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>28</v>
@@ -2570,19 +2582,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2593,19 +2605,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2616,19 +2628,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>16</v>
@@ -2639,22 +2651,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>28</v>
@@ -2662,22 +2674,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>28</v>
@@ -2685,19 +2697,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>16</v>
@@ -2708,19 +2720,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2731,22 +2743,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>28</v>
@@ -2754,22 +2766,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>28</v>
@@ -2777,19 +2789,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>16</v>
@@ -2800,22 +2812,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>28</v>
@@ -2823,22 +2835,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>28</v>
@@ -2846,19 +2858,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2869,22 +2881,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>28</v>
@@ -2892,19 +2904,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2915,19 +2927,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>16</v>
@@ -2938,22 +2950,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>28</v>
@@ -2961,22 +2973,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>28</v>
@@ -2984,22 +2996,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>28</v>
@@ -3007,22 +3019,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>28</v>
@@ -3030,19 +3042,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3053,22 +3065,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>28</v>
@@ -3076,19 +3088,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3099,22 +3111,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>28</v>
@@ -3122,22 +3134,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E113" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>28</v>
@@ -3145,22 +3157,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>28</v>
@@ -3168,19 +3180,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3191,22 +3203,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>28</v>
@@ -3214,19 +3226,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3237,22 +3249,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>28</v>
@@ -3260,19 +3272,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>16</v>
@@ -3283,19 +3295,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3306,19 +3318,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3329,22 +3341,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>28</v>
@@ -3352,22 +3364,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>28</v>
@@ -3375,22 +3387,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>28</v>
@@ -3398,22 +3410,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>28</v>
@@ -3421,22 +3433,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>28</v>
@@ -3444,19 +3456,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>16</v>
@@ -3467,19 +3479,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3490,22 +3502,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>28</v>
@@ -3513,19 +3525,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>16</v>
@@ -3536,22 +3548,22 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>28</v>
@@ -3559,19 +3571,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3582,22 +3594,22 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>28</v>
@@ -3605,19 +3617,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3628,19 +3640,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>16</v>
@@ -3651,19 +3663,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3674,19 +3686,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>16</v>
@@ -3697,22 +3709,22 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>28</v>
@@ -3720,19 +3732,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3743,19 +3755,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3766,19 +3778,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3789,19 +3801,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3812,22 +3824,22 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>28</v>
@@ -3835,19 +3847,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3858,22 +3870,22 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>28</v>
@@ -3881,19 +3893,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3904,22 +3916,22 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>28</v>
@@ -3927,22 +3939,22 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>28</v>
@@ -3950,22 +3962,22 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>28</v>
@@ -3973,19 +3985,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -3996,714 +4008,944 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>138</v>
+        <v>28</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>138</v>
+        <v>28</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>138</v>
+        <v>28</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>138</v>
+        <v>28</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>138</v>
+        <v>28</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>138</v>
+        <v>28</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C157" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E157" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>138</v>
+        <v>28</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>138</v>
+        <v>28</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D177" s="2" t="s">
+      <c r="E177" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D178" s="2" t="s">
+      <c r="E178" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G178" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E179" s="2" t="s">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="E180" s="2" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="E181" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E189" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E181" s="2" t="s">
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B190" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F181" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G181" s="2" t="s">
+      <c r="C190" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
         <v>28</v>
       </c>
     </row>
